--- a/deap/mj_testing/definitionbooks/nsga1_zdt1_Xbinary_Mbinary_EXE.xlsx
+++ b/deap/mj_testing/definitionbooks/nsga1_zdt1_Xbinary_Mbinary_EXE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="17490" windowHeight="6900" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17490" windowHeight="6900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="3" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t>Yes</t>
   </si>
@@ -271,9 +271,6 @@
     <t>path_template</t>
   </si>
   <si>
-    <t>D:\Projects\PhDprojects\testZDT1exe</t>
-  </si>
-  <si>
     <t>mj_zdt1_decimal_exe</t>
   </si>
   <si>
@@ -329,6 +326,18 @@
   </si>
   <si>
     <t>Maximum_processes</t>
+  </si>
+  <si>
+    <t>c:\TestProjectRoot</t>
+  </si>
+  <si>
+    <t>in_memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">path_opt_front </t>
+  </si>
+  <si>
+    <t>C:\Users\jon\git\deap1\examples\ga\pareto_front\zdt1_front.json</t>
   </si>
 </sst>
 </file>
@@ -707,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +733,7 @@
         <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -741,7 +750,7 @@
       </c>
       <c r="B3" t="str">
         <f>CONCATENATE(B1,"\",B2)</f>
-        <v>D:\Projects\PhDprojects\testZDT1exe\Run</v>
+        <v>c:\TestProjectRoot\Run</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -770,57 +779,73 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15">
         <v>6</v>
       </c>
     </row>
@@ -835,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +885,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -871,7 +896,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -953,13 +978,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1036,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+    <sheetView zoomScale="130" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D31"/>
     </sheetView>
   </sheetViews>
@@ -1067,7 +1092,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1084,7 +1109,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -1101,7 +1126,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -1118,7 +1143,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -1135,7 +1160,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1152,7 +1177,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1169,7 +1194,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1186,7 +1211,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1203,7 +1228,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
